--- a/Excel/excel sheet.xlsx
+++ b/Excel/excel sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\Code\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C6EE3-675A-4F30-9CEA-F27F02181BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E325D-4960-48AF-B421-3754E4D4A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>hi</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>hot</t>
+  </si>
+  <si>
+    <t>computer</t>
   </si>
 </sst>
 </file>
@@ -390,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -409,7 +412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,7 +423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -430,8 +433,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -442,7 +448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -450,7 +456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/Excel/excel sheet.xlsx
+++ b/Excel/excel sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\Code\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E325D-4960-48AF-B421-3754E4D4A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875270A-1ECC-47C4-AC2A-9BD9BC7A12E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>hi</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>computer</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>top</t>
   </si>
 </sst>
 </file>
@@ -393,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -411,8 +417,14 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -437,7 +449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,7 +460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -456,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
